--- a/陈明灿每日计划表.xlsx
+++ b/陈明灿每日计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6A362-1FCB-485E-9C09-8CCE647B5AF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236BBBE-B20F-4F16-9E77-9E62223AFE4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="1596" windowWidth="16248" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>7点前起床</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +64,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7点前起床</t>
-  </si>
-  <si>
     <t>线性代数第一章300题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>默默单词341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇线性代数第二讲视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默默单词355</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据实验三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习实验（决策树和随机森林）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默默单词350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:HQ9"/>
+  <dimension ref="A2:HS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -448,27 +469,29 @@
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="18" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="79" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="88" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="110" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="119" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="149" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="150" max="171" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="172" max="180" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="181" max="201" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="202" max="210" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="211" max="225" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="50" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="59" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="81" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="90" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="112" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="121" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="151" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="152" max="173" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="174" max="182" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="203" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="204" max="212" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="213" max="227" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:225" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:227" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44332</v>
       </c>
@@ -477,671 +500,673 @@
         <v>44333</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>44334</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
         <v>44335</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="5"/>
+      <c r="I2" s="1">
         <v>44336</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>44337</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>44338</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>44339</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>44340</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>44341</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>44342</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>44343</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>44344</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="1">
         <v>44345</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>44346</v>
       </c>
-      <c r="R2" s="1">
+      <c r="T2" s="1">
         <v>44347</v>
       </c>
-      <c r="S2" s="1">
+      <c r="U2" s="1">
         <v>44348</v>
       </c>
-      <c r="T2" s="1">
+      <c r="V2" s="1">
         <v>44349</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <v>44350</v>
       </c>
-      <c r="V2" s="1">
+      <c r="X2" s="1">
         <v>44351</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Y2" s="1">
         <v>44352</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Z2" s="1">
         <v>44353</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AA2" s="1">
         <v>44354</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AB2" s="1">
         <v>44355</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AC2" s="1">
         <v>44356</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AD2" s="1">
         <v>44357</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AE2" s="1">
         <v>44358</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AF2" s="1">
         <v>44359</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AG2" s="1">
         <v>44360</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AH2" s="1">
         <v>44361</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AI2" s="1">
         <v>44362</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AJ2" s="1">
         <v>44363</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AK2" s="1">
         <v>44364</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AL2" s="1">
         <v>44365</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AM2" s="1">
         <v>44366</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AN2" s="1">
         <v>44367</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AO2" s="1">
         <v>44368</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AP2" s="1">
         <v>44369</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AQ2" s="1">
         <v>44370</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AR2" s="1">
         <v>44371</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AS2" s="1">
         <v>44372</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AT2" s="1">
         <v>44373</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AU2" s="1">
         <v>44374</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AV2" s="1">
         <v>44375</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AW2" s="1">
         <v>44376</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AX2" s="1">
         <v>44377</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AY2" s="1">
         <v>44378</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AZ2" s="1">
         <v>44379</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="BA2" s="1">
         <v>44380</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="BB2" s="1">
         <v>44381</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BC2" s="1">
         <v>44382</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BD2" s="1">
         <v>44383</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BE2" s="1">
         <v>44384</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BF2" s="1">
         <v>44385</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BG2" s="1">
         <v>44386</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BH2" s="1">
         <v>44387</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BI2" s="1">
         <v>44388</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BJ2" s="1">
         <v>44389</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BK2" s="1">
         <v>44390</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BL2" s="1">
         <v>44391</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BM2" s="1">
         <v>44392</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BN2" s="1">
         <v>44393</v>
       </c>
-      <c r="BM2" s="1">
+      <c r="BO2" s="1">
         <v>44394</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BP2" s="1">
         <v>44395</v>
       </c>
-      <c r="BO2" s="1">
+      <c r="BQ2" s="1">
         <v>44396</v>
       </c>
-      <c r="BP2" s="1">
+      <c r="BR2" s="1">
         <v>44397</v>
       </c>
-      <c r="BQ2" s="1">
+      <c r="BS2" s="1">
         <v>44398</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BT2" s="1">
         <v>44399</v>
       </c>
-      <c r="BS2" s="1">
+      <c r="BU2" s="1">
         <v>44400</v>
       </c>
-      <c r="BT2" s="1">
+      <c r="BV2" s="1">
         <v>44401</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="BW2" s="1">
         <v>44402</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BX2" s="1">
         <v>44403</v>
       </c>
-      <c r="BW2" s="1">
+      <c r="BY2" s="1">
         <v>44404</v>
       </c>
-      <c r="BX2" s="1">
+      <c r="BZ2" s="1">
         <v>44405</v>
       </c>
-      <c r="BY2" s="1">
+      <c r="CA2" s="1">
         <v>44406</v>
       </c>
-      <c r="BZ2" s="1">
+      <c r="CB2" s="1">
         <v>44407</v>
       </c>
-      <c r="CA2" s="1">
+      <c r="CC2" s="1">
         <v>44408</v>
       </c>
-      <c r="CB2" s="1">
+      <c r="CD2" s="1">
         <v>44409</v>
       </c>
-      <c r="CC2" s="1">
+      <c r="CE2" s="1">
         <v>44410</v>
       </c>
-      <c r="CD2" s="1">
+      <c r="CF2" s="1">
         <v>44411</v>
       </c>
-      <c r="CE2" s="1">
+      <c r="CG2" s="1">
         <v>44412</v>
       </c>
-      <c r="CF2" s="1">
+      <c r="CH2" s="1">
         <v>44413</v>
       </c>
-      <c r="CG2" s="1">
+      <c r="CI2" s="1">
         <v>44414</v>
       </c>
-      <c r="CH2" s="1">
+      <c r="CJ2" s="1">
         <v>44415</v>
       </c>
-      <c r="CI2" s="1">
+      <c r="CK2" s="1">
         <v>44416</v>
       </c>
-      <c r="CJ2" s="1">
+      <c r="CL2" s="1">
         <v>44417</v>
       </c>
-      <c r="CK2" s="1">
+      <c r="CM2" s="1">
         <v>44418</v>
       </c>
-      <c r="CL2" s="1">
+      <c r="CN2" s="1">
         <v>44419</v>
       </c>
-      <c r="CM2" s="1">
+      <c r="CO2" s="1">
         <v>44420</v>
       </c>
-      <c r="CN2" s="1">
+      <c r="CP2" s="1">
         <v>44421</v>
       </c>
-      <c r="CO2" s="1">
+      <c r="CQ2" s="1">
         <v>44422</v>
       </c>
-      <c r="CP2" s="1">
+      <c r="CR2" s="1">
         <v>44423</v>
       </c>
-      <c r="CQ2" s="1">
+      <c r="CS2" s="1">
         <v>44424</v>
       </c>
-      <c r="CR2" s="1">
+      <c r="CT2" s="1">
         <v>44425</v>
       </c>
-      <c r="CS2" s="1">
+      <c r="CU2" s="1">
         <v>44426</v>
       </c>
-      <c r="CT2" s="1">
+      <c r="CV2" s="1">
         <v>44427</v>
       </c>
-      <c r="CU2" s="1">
+      <c r="CW2" s="1">
         <v>44428</v>
       </c>
-      <c r="CV2" s="1">
+      <c r="CX2" s="1">
         <v>44429</v>
       </c>
-      <c r="CW2" s="1">
+      <c r="CY2" s="1">
         <v>44430</v>
       </c>
-      <c r="CX2" s="1">
+      <c r="CZ2" s="1">
         <v>44431</v>
       </c>
-      <c r="CY2" s="1">
+      <c r="DA2" s="1">
         <v>44432</v>
       </c>
-      <c r="CZ2" s="1">
+      <c r="DB2" s="1">
         <v>44433</v>
       </c>
-      <c r="DA2" s="1">
+      <c r="DC2" s="1">
         <v>44434</v>
       </c>
-      <c r="DB2" s="1">
+      <c r="DD2" s="1">
         <v>44435</v>
       </c>
-      <c r="DC2" s="1">
+      <c r="DE2" s="1">
         <v>44436</v>
       </c>
-      <c r="DD2" s="1">
+      <c r="DF2" s="1">
         <v>44437</v>
       </c>
-      <c r="DE2" s="1">
+      <c r="DG2" s="1">
         <v>44438</v>
       </c>
-      <c r="DF2" s="1">
+      <c r="DH2" s="1">
         <v>44439</v>
       </c>
-      <c r="DG2" s="1">
+      <c r="DI2" s="1">
         <v>44440</v>
       </c>
-      <c r="DH2" s="1">
+      <c r="DJ2" s="1">
         <v>44441</v>
       </c>
-      <c r="DI2" s="1">
+      <c r="DK2" s="1">
         <v>44442</v>
       </c>
-      <c r="DJ2" s="1">
+      <c r="DL2" s="1">
         <v>44443</v>
       </c>
-      <c r="DK2" s="1">
+      <c r="DM2" s="1">
         <v>44444</v>
       </c>
-      <c r="DL2" s="1">
+      <c r="DN2" s="1">
         <v>44445</v>
       </c>
-      <c r="DM2" s="1">
+      <c r="DO2" s="1">
         <v>44446</v>
       </c>
-      <c r="DN2" s="1">
+      <c r="DP2" s="1">
         <v>44447</v>
       </c>
-      <c r="DO2" s="1">
+      <c r="DQ2" s="1">
         <v>44448</v>
       </c>
-      <c r="DP2" s="1">
+      <c r="DR2" s="1">
         <v>44449</v>
       </c>
-      <c r="DQ2" s="1">
+      <c r="DS2" s="1">
         <v>44450</v>
       </c>
-      <c r="DR2" s="1">
+      <c r="DT2" s="1">
         <v>44451</v>
       </c>
-      <c r="DS2" s="1">
+      <c r="DU2" s="1">
         <v>44452</v>
       </c>
-      <c r="DT2" s="1">
+      <c r="DV2" s="1">
         <v>44453</v>
       </c>
-      <c r="DU2" s="1">
+      <c r="DW2" s="1">
         <v>44454</v>
       </c>
-      <c r="DV2" s="1">
+      <c r="DX2" s="1">
         <v>44455</v>
       </c>
-      <c r="DW2" s="1">
+      <c r="DY2" s="1">
         <v>44456</v>
       </c>
-      <c r="DX2" s="1">
+      <c r="DZ2" s="1">
         <v>44457</v>
       </c>
-      <c r="DY2" s="1">
+      <c r="EA2" s="1">
         <v>44458</v>
       </c>
-      <c r="DZ2" s="1">
+      <c r="EB2" s="1">
         <v>44459</v>
       </c>
-      <c r="EA2" s="1">
+      <c r="EC2" s="1">
         <v>44460</v>
       </c>
-      <c r="EB2" s="1">
+      <c r="ED2" s="1">
         <v>44461</v>
       </c>
-      <c r="EC2" s="1">
+      <c r="EE2" s="1">
         <v>44462</v>
       </c>
-      <c r="ED2" s="1">
+      <c r="EF2" s="1">
         <v>44463</v>
       </c>
-      <c r="EE2" s="1">
+      <c r="EG2" s="1">
         <v>44464</v>
       </c>
-      <c r="EF2" s="1">
+      <c r="EH2" s="1">
         <v>44465</v>
       </c>
-      <c r="EG2" s="1">
+      <c r="EI2" s="1">
         <v>44466</v>
       </c>
-      <c r="EH2" s="1">
+      <c r="EJ2" s="1">
         <v>44467</v>
       </c>
-      <c r="EI2" s="1">
+      <c r="EK2" s="1">
         <v>44468</v>
       </c>
-      <c r="EJ2" s="1">
+      <c r="EL2" s="1">
         <v>44469</v>
       </c>
-      <c r="EK2" s="1">
+      <c r="EM2" s="1">
         <v>44470</v>
       </c>
-      <c r="EL2" s="1">
+      <c r="EN2" s="1">
         <v>44471</v>
       </c>
-      <c r="EM2" s="1">
+      <c r="EO2" s="1">
         <v>44472</v>
       </c>
-      <c r="EN2" s="1">
+      <c r="EP2" s="1">
         <v>44473</v>
       </c>
-      <c r="EO2" s="1">
+      <c r="EQ2" s="1">
         <v>44474</v>
       </c>
-      <c r="EP2" s="1">
+      <c r="ER2" s="1">
         <v>44475</v>
       </c>
-      <c r="EQ2" s="1">
+      <c r="ES2" s="1">
         <v>44476</v>
       </c>
-      <c r="ER2" s="1">
+      <c r="ET2" s="1">
         <v>44477</v>
       </c>
-      <c r="ES2" s="1">
+      <c r="EU2" s="1">
         <v>44478</v>
       </c>
-      <c r="ET2" s="1">
+      <c r="EV2" s="1">
         <v>44479</v>
       </c>
-      <c r="EU2" s="1">
+      <c r="EW2" s="1">
         <v>44480</v>
       </c>
-      <c r="EV2" s="1">
+      <c r="EX2" s="1">
         <v>44481</v>
       </c>
-      <c r="EW2" s="1">
+      <c r="EY2" s="1">
         <v>44482</v>
       </c>
-      <c r="EX2" s="1">
+      <c r="EZ2" s="1">
         <v>44483</v>
       </c>
-      <c r="EY2" s="1">
+      <c r="FA2" s="1">
         <v>44484</v>
       </c>
-      <c r="EZ2" s="1">
+      <c r="FB2" s="1">
         <v>44485</v>
       </c>
-      <c r="FA2" s="1">
+      <c r="FC2" s="1">
         <v>44486</v>
       </c>
-      <c r="FB2" s="1">
+      <c r="FD2" s="1">
         <v>44487</v>
       </c>
-      <c r="FC2" s="1">
+      <c r="FE2" s="1">
         <v>44488</v>
       </c>
-      <c r="FD2" s="1">
+      <c r="FF2" s="1">
         <v>44489</v>
       </c>
-      <c r="FE2" s="1">
+      <c r="FG2" s="1">
         <v>44490</v>
       </c>
-      <c r="FF2" s="1">
+      <c r="FH2" s="1">
         <v>44491</v>
       </c>
-      <c r="FG2" s="1">
+      <c r="FI2" s="1">
         <v>44492</v>
       </c>
-      <c r="FH2" s="1">
+      <c r="FJ2" s="1">
         <v>44493</v>
       </c>
-      <c r="FI2" s="1">
+      <c r="FK2" s="1">
         <v>44494</v>
       </c>
-      <c r="FJ2" s="1">
+      <c r="FL2" s="1">
         <v>44495</v>
       </c>
-      <c r="FK2" s="1">
+      <c r="FM2" s="1">
         <v>44496</v>
       </c>
-      <c r="FL2" s="1">
+      <c r="FN2" s="1">
         <v>44497</v>
       </c>
-      <c r="FM2" s="1">
+      <c r="FO2" s="1">
         <v>44498</v>
       </c>
-      <c r="FN2" s="1">
+      <c r="FP2" s="1">
         <v>44499</v>
       </c>
-      <c r="FO2" s="1">
+      <c r="FQ2" s="1">
         <v>44500</v>
       </c>
-      <c r="FP2" s="1">
+      <c r="FR2" s="1">
         <v>44501</v>
       </c>
-      <c r="FQ2" s="1">
+      <c r="FS2" s="1">
         <v>44502</v>
       </c>
-      <c r="FR2" s="1">
+      <c r="FT2" s="1">
         <v>44503</v>
       </c>
-      <c r="FS2" s="1">
+      <c r="FU2" s="1">
         <v>44504</v>
       </c>
-      <c r="FT2" s="1">
+      <c r="FV2" s="1">
         <v>44505</v>
       </c>
-      <c r="FU2" s="1">
+      <c r="FW2" s="1">
         <v>44506</v>
       </c>
-      <c r="FV2" s="1">
+      <c r="FX2" s="1">
         <v>44507</v>
       </c>
-      <c r="FW2" s="1">
+      <c r="FY2" s="1">
         <v>44508</v>
       </c>
-      <c r="FX2" s="1">
+      <c r="FZ2" s="1">
         <v>44509</v>
       </c>
-      <c r="FY2" s="1">
+      <c r="GA2" s="1">
         <v>44510</v>
       </c>
-      <c r="FZ2" s="1">
+      <c r="GB2" s="1">
         <v>44511</v>
       </c>
-      <c r="GA2" s="1">
+      <c r="GC2" s="1">
         <v>44512</v>
       </c>
-      <c r="GB2" s="1">
+      <c r="GD2" s="1">
         <v>44513</v>
       </c>
-      <c r="GC2" s="1">
+      <c r="GE2" s="1">
         <v>44514</v>
       </c>
-      <c r="GD2" s="1">
+      <c r="GF2" s="1">
         <v>44515</v>
       </c>
-      <c r="GE2" s="1">
+      <c r="GG2" s="1">
         <v>44516</v>
       </c>
-      <c r="GF2" s="1">
+      <c r="GH2" s="1">
         <v>44517</v>
       </c>
-      <c r="GG2" s="1">
+      <c r="GI2" s="1">
         <v>44518</v>
       </c>
-      <c r="GH2" s="1">
+      <c r="GJ2" s="1">
         <v>44519</v>
       </c>
-      <c r="GI2" s="1">
+      <c r="GK2" s="1">
         <v>44520</v>
       </c>
-      <c r="GJ2" s="1">
+      <c r="GL2" s="1">
         <v>44521</v>
       </c>
-      <c r="GK2" s="1">
+      <c r="GM2" s="1">
         <v>44522</v>
       </c>
-      <c r="GL2" s="1">
+      <c r="GN2" s="1">
         <v>44523</v>
       </c>
-      <c r="GM2" s="1">
+      <c r="GO2" s="1">
         <v>44524</v>
       </c>
-      <c r="GN2" s="1">
+      <c r="GP2" s="1">
         <v>44525</v>
       </c>
-      <c r="GO2" s="1">
+      <c r="GQ2" s="1">
         <v>44526</v>
       </c>
-      <c r="GP2" s="1">
+      <c r="GR2" s="1">
         <v>44527</v>
       </c>
-      <c r="GQ2" s="1">
+      <c r="GS2" s="1">
         <v>44528</v>
       </c>
-      <c r="GR2" s="1">
+      <c r="GT2" s="1">
         <v>44529</v>
       </c>
-      <c r="GS2" s="1">
+      <c r="GU2" s="1">
         <v>44530</v>
       </c>
-      <c r="GT2" s="1">
+      <c r="GV2" s="1">
         <v>44531</v>
       </c>
-      <c r="GU2" s="1">
+      <c r="GW2" s="1">
         <v>44532</v>
       </c>
-      <c r="GV2" s="1">
+      <c r="GX2" s="1">
         <v>44533</v>
       </c>
-      <c r="GW2" s="1">
+      <c r="GY2" s="1">
         <v>44534</v>
       </c>
-      <c r="GX2" s="1">
+      <c r="GZ2" s="1">
         <v>44535</v>
       </c>
-      <c r="GY2" s="1">
+      <c r="HA2" s="1">
         <v>44536</v>
       </c>
-      <c r="GZ2" s="1">
+      <c r="HB2" s="1">
         <v>44537</v>
       </c>
-      <c r="HA2" s="1">
+      <c r="HC2" s="1">
         <v>44538</v>
       </c>
-      <c r="HB2" s="1">
+      <c r="HD2" s="1">
         <v>44539</v>
       </c>
-      <c r="HC2" s="1">
+      <c r="HE2" s="1">
         <v>44540</v>
       </c>
-      <c r="HD2" s="1">
+      <c r="HF2" s="1">
         <v>44541</v>
       </c>
-      <c r="HE2" s="1">
+      <c r="HG2" s="1">
         <v>44542</v>
       </c>
-      <c r="HF2" s="1">
+      <c r="HH2" s="1">
         <v>44543</v>
       </c>
-      <c r="HG2" s="1">
+      <c r="HI2" s="1">
         <v>44544</v>
       </c>
-      <c r="HH2" s="1">
+      <c r="HJ2" s="1">
         <v>44545</v>
       </c>
-      <c r="HI2" s="1">
+      <c r="HK2" s="1">
         <v>44546</v>
       </c>
-      <c r="HJ2" s="1">
+      <c r="HL2" s="1">
         <v>44547</v>
       </c>
-      <c r="HK2" s="1">
+      <c r="HM2" s="1">
         <v>44548</v>
       </c>
-      <c r="HL2" s="1">
+      <c r="HN2" s="1">
         <v>44549</v>
       </c>
-      <c r="HM2" s="1">
+      <c r="HO2" s="1">
         <v>44550</v>
       </c>
-      <c r="HN2" s="1">
+      <c r="HP2" s="1">
         <v>44551</v>
       </c>
-      <c r="HO2" s="1">
+      <c r="HQ2" s="1">
         <v>44552</v>
       </c>
-      <c r="HP2" s="1">
+      <c r="HR2" s="1">
         <v>44553</v>
       </c>
-      <c r="HQ2" s="1">
+      <c r="HS2" s="1">
         <v>44554</v>
       </c>
     </row>
-    <row r="3" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:227" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1149,13 +1174,25 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:227" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1168,8 +1205,20 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:227" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1182,8 +1231,20 @@
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:227" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1191,13 +1252,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:227" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1205,13 +1278,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:227" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:227" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1228,9 +1307,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/陈明灿每日计划表.xlsx
+++ b/陈明灿每日计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236BBBE-B20F-4F16-9E77-9E62223AFE4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE20593-D739-4EFD-8C03-8E7FEA653355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="1596" windowWidth="16248" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="-108" windowWidth="22776" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>7点前起床</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,34 @@
   </si>
   <si>
     <t>默默单词350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7点起床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七点起床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03真题TEXT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03真题TEXT2精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇线性代数第二讲300题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济课论文（时间不够的话放在明天抄）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:HS9"/>
+  <dimension ref="A2:HW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -468,30 +496,32 @@
     <col min="2" max="2" width="11.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="50" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="59" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="81" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="90" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="112" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="113" max="121" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="151" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="152" max="173" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="174" max="182" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="183" max="203" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="204" max="212" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="213" max="227" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
+    <col min="17" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="33" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="54" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="63" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="85" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="94" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="116" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="125" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="155" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="156" max="177" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="178" max="186" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="187" max="207" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="208" max="216" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="217" max="231" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:227" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:231" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44332</v>
       </c>
@@ -508,665 +538,668 @@
         <v>44335</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="1">
+      <c r="I2" s="5">
         <v>44336</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
         <v>44337</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="5"/>
+      <c r="M2" s="1">
         <v>44338</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="5">
         <v>44339</v>
       </c>
-      <c r="M2" s="1">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="1">
         <v>44340</v>
       </c>
-      <c r="N2" s="1">
+      <c r="R2" s="1">
         <v>44341</v>
       </c>
-      <c r="O2" s="1">
+      <c r="S2" s="1">
         <v>44342</v>
       </c>
-      <c r="P2" s="1">
+      <c r="T2" s="1">
         <v>44343</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="U2" s="1">
         <v>44344</v>
       </c>
-      <c r="R2" s="1">
+      <c r="V2" s="1">
         <v>44345</v>
       </c>
-      <c r="S2" s="1">
+      <c r="W2" s="1">
         <v>44346</v>
       </c>
-      <c r="T2" s="1">
+      <c r="X2" s="1">
         <v>44347</v>
       </c>
-      <c r="U2" s="1">
+      <c r="Y2" s="1">
         <v>44348</v>
       </c>
-      <c r="V2" s="1">
+      <c r="Z2" s="1">
         <v>44349</v>
       </c>
-      <c r="W2" s="1">
+      <c r="AA2" s="1">
         <v>44350</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AB2" s="1">
         <v>44351</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AC2" s="1">
         <v>44352</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AD2" s="1">
         <v>44353</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AE2" s="1">
         <v>44354</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AF2" s="1">
         <v>44355</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AG2" s="1">
         <v>44356</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AH2" s="1">
         <v>44357</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AI2" s="1">
         <v>44358</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AJ2" s="1">
         <v>44359</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AK2" s="1">
         <v>44360</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AL2" s="1">
         <v>44361</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AM2" s="1">
         <v>44362</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AN2" s="1">
         <v>44363</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AO2" s="1">
         <v>44364</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AP2" s="1">
         <v>44365</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AQ2" s="1">
         <v>44366</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AR2" s="1">
         <v>44367</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AS2" s="1">
         <v>44368</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AT2" s="1">
         <v>44369</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AU2" s="1">
         <v>44370</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AV2" s="1">
         <v>44371</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AW2" s="1">
         <v>44372</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AX2" s="1">
         <v>44373</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AY2" s="1">
         <v>44374</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AZ2" s="1">
         <v>44375</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="BA2" s="1">
         <v>44376</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="BB2" s="1">
         <v>44377</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="BC2" s="1">
         <v>44378</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="BD2" s="1">
         <v>44379</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BE2" s="1">
         <v>44380</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BF2" s="1">
         <v>44381</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BG2" s="1">
         <v>44382</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BH2" s="1">
         <v>44383</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BI2" s="1">
         <v>44384</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BJ2" s="1">
         <v>44385</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BK2" s="1">
         <v>44386</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BL2" s="1">
         <v>44387</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BM2" s="1">
         <v>44388</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BN2" s="1">
         <v>44389</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BO2" s="1">
         <v>44390</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BP2" s="1">
         <v>44391</v>
       </c>
-      <c r="BM2" s="1">
+      <c r="BQ2" s="1">
         <v>44392</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BR2" s="1">
         <v>44393</v>
       </c>
-      <c r="BO2" s="1">
+      <c r="BS2" s="1">
         <v>44394</v>
       </c>
-      <c r="BP2" s="1">
+      <c r="BT2" s="1">
         <v>44395</v>
       </c>
-      <c r="BQ2" s="1">
+      <c r="BU2" s="1">
         <v>44396</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BV2" s="1">
         <v>44397</v>
       </c>
-      <c r="BS2" s="1">
+      <c r="BW2" s="1">
         <v>44398</v>
       </c>
-      <c r="BT2" s="1">
+      <c r="BX2" s="1">
         <v>44399</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="BY2" s="1">
         <v>44400</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BZ2" s="1">
         <v>44401</v>
       </c>
-      <c r="BW2" s="1">
+      <c r="CA2" s="1">
         <v>44402</v>
       </c>
-      <c r="BX2" s="1">
+      <c r="CB2" s="1">
         <v>44403</v>
       </c>
-      <c r="BY2" s="1">
+      <c r="CC2" s="1">
         <v>44404</v>
       </c>
-      <c r="BZ2" s="1">
+      <c r="CD2" s="1">
         <v>44405</v>
       </c>
-      <c r="CA2" s="1">
+      <c r="CE2" s="1">
         <v>44406</v>
       </c>
-      <c r="CB2" s="1">
+      <c r="CF2" s="1">
         <v>44407</v>
       </c>
-      <c r="CC2" s="1">
+      <c r="CG2" s="1">
         <v>44408</v>
       </c>
-      <c r="CD2" s="1">
+      <c r="CH2" s="1">
         <v>44409</v>
       </c>
-      <c r="CE2" s="1">
+      <c r="CI2" s="1">
         <v>44410</v>
       </c>
-      <c r="CF2" s="1">
+      <c r="CJ2" s="1">
         <v>44411</v>
       </c>
-      <c r="CG2" s="1">
+      <c r="CK2" s="1">
         <v>44412</v>
       </c>
-      <c r="CH2" s="1">
+      <c r="CL2" s="1">
         <v>44413</v>
       </c>
-      <c r="CI2" s="1">
+      <c r="CM2" s="1">
         <v>44414</v>
       </c>
-      <c r="CJ2" s="1">
+      <c r="CN2" s="1">
         <v>44415</v>
       </c>
-      <c r="CK2" s="1">
+      <c r="CO2" s="1">
         <v>44416</v>
       </c>
-      <c r="CL2" s="1">
+      <c r="CP2" s="1">
         <v>44417</v>
       </c>
-      <c r="CM2" s="1">
+      <c r="CQ2" s="1">
         <v>44418</v>
       </c>
-      <c r="CN2" s="1">
+      <c r="CR2" s="1">
         <v>44419</v>
       </c>
-      <c r="CO2" s="1">
+      <c r="CS2" s="1">
         <v>44420</v>
       </c>
-      <c r="CP2" s="1">
+      <c r="CT2" s="1">
         <v>44421</v>
       </c>
-      <c r="CQ2" s="1">
+      <c r="CU2" s="1">
         <v>44422</v>
       </c>
-      <c r="CR2" s="1">
+      <c r="CV2" s="1">
         <v>44423</v>
       </c>
-      <c r="CS2" s="1">
+      <c r="CW2" s="1">
         <v>44424</v>
       </c>
-      <c r="CT2" s="1">
+      <c r="CX2" s="1">
         <v>44425</v>
       </c>
-      <c r="CU2" s="1">
+      <c r="CY2" s="1">
         <v>44426</v>
       </c>
-      <c r="CV2" s="1">
+      <c r="CZ2" s="1">
         <v>44427</v>
       </c>
-      <c r="CW2" s="1">
+      <c r="DA2" s="1">
         <v>44428</v>
       </c>
-      <c r="CX2" s="1">
+      <c r="DB2" s="1">
         <v>44429</v>
       </c>
-      <c r="CY2" s="1">
+      <c r="DC2" s="1">
         <v>44430</v>
       </c>
-      <c r="CZ2" s="1">
+      <c r="DD2" s="1">
         <v>44431</v>
       </c>
-      <c r="DA2" s="1">
+      <c r="DE2" s="1">
         <v>44432</v>
       </c>
-      <c r="DB2" s="1">
+      <c r="DF2" s="1">
         <v>44433</v>
       </c>
-      <c r="DC2" s="1">
+      <c r="DG2" s="1">
         <v>44434</v>
       </c>
-      <c r="DD2" s="1">
+      <c r="DH2" s="1">
         <v>44435</v>
       </c>
-      <c r="DE2" s="1">
+      <c r="DI2" s="1">
         <v>44436</v>
       </c>
-      <c r="DF2" s="1">
+      <c r="DJ2" s="1">
         <v>44437</v>
       </c>
-      <c r="DG2" s="1">
+      <c r="DK2" s="1">
         <v>44438</v>
       </c>
-      <c r="DH2" s="1">
+      <c r="DL2" s="1">
         <v>44439</v>
       </c>
-      <c r="DI2" s="1">
+      <c r="DM2" s="1">
         <v>44440</v>
       </c>
-      <c r="DJ2" s="1">
+      <c r="DN2" s="1">
         <v>44441</v>
       </c>
-      <c r="DK2" s="1">
+      <c r="DO2" s="1">
         <v>44442</v>
       </c>
-      <c r="DL2" s="1">
+      <c r="DP2" s="1">
         <v>44443</v>
       </c>
-      <c r="DM2" s="1">
+      <c r="DQ2" s="1">
         <v>44444</v>
       </c>
-      <c r="DN2" s="1">
+      <c r="DR2" s="1">
         <v>44445</v>
       </c>
-      <c r="DO2" s="1">
+      <c r="DS2" s="1">
         <v>44446</v>
       </c>
-      <c r="DP2" s="1">
+      <c r="DT2" s="1">
         <v>44447</v>
       </c>
-      <c r="DQ2" s="1">
+      <c r="DU2" s="1">
         <v>44448</v>
       </c>
-      <c r="DR2" s="1">
+      <c r="DV2" s="1">
         <v>44449</v>
       </c>
-      <c r="DS2" s="1">
+      <c r="DW2" s="1">
         <v>44450</v>
       </c>
-      <c r="DT2" s="1">
+      <c r="DX2" s="1">
         <v>44451</v>
       </c>
-      <c r="DU2" s="1">
+      <c r="DY2" s="1">
         <v>44452</v>
       </c>
-      <c r="DV2" s="1">
+      <c r="DZ2" s="1">
         <v>44453</v>
       </c>
-      <c r="DW2" s="1">
+      <c r="EA2" s="1">
         <v>44454</v>
       </c>
-      <c r="DX2" s="1">
+      <c r="EB2" s="1">
         <v>44455</v>
       </c>
-      <c r="DY2" s="1">
+      <c r="EC2" s="1">
         <v>44456</v>
       </c>
-      <c r="DZ2" s="1">
+      <c r="ED2" s="1">
         <v>44457</v>
       </c>
-      <c r="EA2" s="1">
+      <c r="EE2" s="1">
         <v>44458</v>
       </c>
-      <c r="EB2" s="1">
+      <c r="EF2" s="1">
         <v>44459</v>
       </c>
-      <c r="EC2" s="1">
+      <c r="EG2" s="1">
         <v>44460</v>
       </c>
-      <c r="ED2" s="1">
+      <c r="EH2" s="1">
         <v>44461</v>
       </c>
-      <c r="EE2" s="1">
+      <c r="EI2" s="1">
         <v>44462</v>
       </c>
-      <c r="EF2" s="1">
+      <c r="EJ2" s="1">
         <v>44463</v>
       </c>
-      <c r="EG2" s="1">
+      <c r="EK2" s="1">
         <v>44464</v>
       </c>
-      <c r="EH2" s="1">
+      <c r="EL2" s="1">
         <v>44465</v>
       </c>
-      <c r="EI2" s="1">
+      <c r="EM2" s="1">
         <v>44466</v>
       </c>
-      <c r="EJ2" s="1">
+      <c r="EN2" s="1">
         <v>44467</v>
       </c>
-      <c r="EK2" s="1">
+      <c r="EO2" s="1">
         <v>44468</v>
       </c>
-      <c r="EL2" s="1">
+      <c r="EP2" s="1">
         <v>44469</v>
       </c>
-      <c r="EM2" s="1">
+      <c r="EQ2" s="1">
         <v>44470</v>
       </c>
-      <c r="EN2" s="1">
+      <c r="ER2" s="1">
         <v>44471</v>
       </c>
-      <c r="EO2" s="1">
+      <c r="ES2" s="1">
         <v>44472</v>
       </c>
-      <c r="EP2" s="1">
+      <c r="ET2" s="1">
         <v>44473</v>
       </c>
-      <c r="EQ2" s="1">
+      <c r="EU2" s="1">
         <v>44474</v>
       </c>
-      <c r="ER2" s="1">
+      <c r="EV2" s="1">
         <v>44475</v>
       </c>
-      <c r="ES2" s="1">
+      <c r="EW2" s="1">
         <v>44476</v>
       </c>
-      <c r="ET2" s="1">
+      <c r="EX2" s="1">
         <v>44477</v>
       </c>
-      <c r="EU2" s="1">
+      <c r="EY2" s="1">
         <v>44478</v>
       </c>
-      <c r="EV2" s="1">
+      <c r="EZ2" s="1">
         <v>44479</v>
       </c>
-      <c r="EW2" s="1">
+      <c r="FA2" s="1">
         <v>44480</v>
       </c>
-      <c r="EX2" s="1">
+      <c r="FB2" s="1">
         <v>44481</v>
       </c>
-      <c r="EY2" s="1">
+      <c r="FC2" s="1">
         <v>44482</v>
       </c>
-      <c r="EZ2" s="1">
+      <c r="FD2" s="1">
         <v>44483</v>
       </c>
-      <c r="FA2" s="1">
+      <c r="FE2" s="1">
         <v>44484</v>
       </c>
-      <c r="FB2" s="1">
+      <c r="FF2" s="1">
         <v>44485</v>
       </c>
-      <c r="FC2" s="1">
+      <c r="FG2" s="1">
         <v>44486</v>
       </c>
-      <c r="FD2" s="1">
+      <c r="FH2" s="1">
         <v>44487</v>
       </c>
-      <c r="FE2" s="1">
+      <c r="FI2" s="1">
         <v>44488</v>
       </c>
-      <c r="FF2" s="1">
+      <c r="FJ2" s="1">
         <v>44489</v>
       </c>
-      <c r="FG2" s="1">
+      <c r="FK2" s="1">
         <v>44490</v>
       </c>
-      <c r="FH2" s="1">
+      <c r="FL2" s="1">
         <v>44491</v>
       </c>
-      <c r="FI2" s="1">
+      <c r="FM2" s="1">
         <v>44492</v>
       </c>
-      <c r="FJ2" s="1">
+      <c r="FN2" s="1">
         <v>44493</v>
       </c>
-      <c r="FK2" s="1">
+      <c r="FO2" s="1">
         <v>44494</v>
       </c>
-      <c r="FL2" s="1">
+      <c r="FP2" s="1">
         <v>44495</v>
       </c>
-      <c r="FM2" s="1">
+      <c r="FQ2" s="1">
         <v>44496</v>
       </c>
-      <c r="FN2" s="1">
+      <c r="FR2" s="1">
         <v>44497</v>
       </c>
-      <c r="FO2" s="1">
+      <c r="FS2" s="1">
         <v>44498</v>
       </c>
-      <c r="FP2" s="1">
+      <c r="FT2" s="1">
         <v>44499</v>
       </c>
-      <c r="FQ2" s="1">
+      <c r="FU2" s="1">
         <v>44500</v>
       </c>
-      <c r="FR2" s="1">
+      <c r="FV2" s="1">
         <v>44501</v>
       </c>
-      <c r="FS2" s="1">
+      <c r="FW2" s="1">
         <v>44502</v>
       </c>
-      <c r="FT2" s="1">
+      <c r="FX2" s="1">
         <v>44503</v>
       </c>
-      <c r="FU2" s="1">
+      <c r="FY2" s="1">
         <v>44504</v>
       </c>
-      <c r="FV2" s="1">
+      <c r="FZ2" s="1">
         <v>44505</v>
       </c>
-      <c r="FW2" s="1">
+      <c r="GA2" s="1">
         <v>44506</v>
       </c>
-      <c r="FX2" s="1">
+      <c r="GB2" s="1">
         <v>44507</v>
       </c>
-      <c r="FY2" s="1">
+      <c r="GC2" s="1">
         <v>44508</v>
       </c>
-      <c r="FZ2" s="1">
+      <c r="GD2" s="1">
         <v>44509</v>
       </c>
-      <c r="GA2" s="1">
+      <c r="GE2" s="1">
         <v>44510</v>
       </c>
-      <c r="GB2" s="1">
+      <c r="GF2" s="1">
         <v>44511</v>
       </c>
-      <c r="GC2" s="1">
+      <c r="GG2" s="1">
         <v>44512</v>
       </c>
-      <c r="GD2" s="1">
+      <c r="GH2" s="1">
         <v>44513</v>
       </c>
-      <c r="GE2" s="1">
+      <c r="GI2" s="1">
         <v>44514</v>
       </c>
-      <c r="GF2" s="1">
+      <c r="GJ2" s="1">
         <v>44515</v>
       </c>
-      <c r="GG2" s="1">
+      <c r="GK2" s="1">
         <v>44516</v>
       </c>
-      <c r="GH2" s="1">
+      <c r="GL2" s="1">
         <v>44517</v>
       </c>
-      <c r="GI2" s="1">
+      <c r="GM2" s="1">
         <v>44518</v>
       </c>
-      <c r="GJ2" s="1">
+      <c r="GN2" s="1">
         <v>44519</v>
       </c>
-      <c r="GK2" s="1">
+      <c r="GO2" s="1">
         <v>44520</v>
       </c>
-      <c r="GL2" s="1">
+      <c r="GP2" s="1">
         <v>44521</v>
       </c>
-      <c r="GM2" s="1">
+      <c r="GQ2" s="1">
         <v>44522</v>
       </c>
-      <c r="GN2" s="1">
+      <c r="GR2" s="1">
         <v>44523</v>
       </c>
-      <c r="GO2" s="1">
+      <c r="GS2" s="1">
         <v>44524</v>
       </c>
-      <c r="GP2" s="1">
+      <c r="GT2" s="1">
         <v>44525</v>
       </c>
-      <c r="GQ2" s="1">
+      <c r="GU2" s="1">
         <v>44526</v>
       </c>
-      <c r="GR2" s="1">
+      <c r="GV2" s="1">
         <v>44527</v>
       </c>
-      <c r="GS2" s="1">
+      <c r="GW2" s="1">
         <v>44528</v>
       </c>
-      <c r="GT2" s="1">
+      <c r="GX2" s="1">
         <v>44529</v>
       </c>
-      <c r="GU2" s="1">
+      <c r="GY2" s="1">
         <v>44530</v>
       </c>
-      <c r="GV2" s="1">
+      <c r="GZ2" s="1">
         <v>44531</v>
       </c>
-      <c r="GW2" s="1">
+      <c r="HA2" s="1">
         <v>44532</v>
       </c>
-      <c r="GX2" s="1">
+      <c r="HB2" s="1">
         <v>44533</v>
       </c>
-      <c r="GY2" s="1">
+      <c r="HC2" s="1">
         <v>44534</v>
       </c>
-      <c r="GZ2" s="1">
+      <c r="HD2" s="1">
         <v>44535</v>
       </c>
-      <c r="HA2" s="1">
+      <c r="HE2" s="1">
         <v>44536</v>
       </c>
-      <c r="HB2" s="1">
+      <c r="HF2" s="1">
         <v>44537</v>
       </c>
-      <c r="HC2" s="1">
+      <c r="HG2" s="1">
         <v>44538</v>
       </c>
-      <c r="HD2" s="1">
+      <c r="HH2" s="1">
         <v>44539</v>
       </c>
-      <c r="HE2" s="1">
+      <c r="HI2" s="1">
         <v>44540</v>
       </c>
-      <c r="HF2" s="1">
+      <c r="HJ2" s="1">
         <v>44541</v>
       </c>
-      <c r="HG2" s="1">
+      <c r="HK2" s="1">
         <v>44542</v>
       </c>
-      <c r="HH2" s="1">
+      <c r="HL2" s="1">
         <v>44543</v>
       </c>
-      <c r="HI2" s="1">
+      <c r="HM2" s="1">
         <v>44544</v>
       </c>
-      <c r="HJ2" s="1">
+      <c r="HN2" s="1">
         <v>44545</v>
       </c>
-      <c r="HK2" s="1">
+      <c r="HO2" s="1">
         <v>44546</v>
       </c>
-      <c r="HL2" s="1">
+      <c r="HP2" s="1">
         <v>44547</v>
       </c>
-      <c r="HM2" s="1">
+      <c r="HQ2" s="1">
         <v>44548</v>
       </c>
-      <c r="HN2" s="1">
+      <c r="HR2" s="1">
         <v>44549</v>
       </c>
-      <c r="HO2" s="1">
+      <c r="HS2" s="1">
         <v>44550</v>
       </c>
-      <c r="HP2" s="1">
+      <c r="HT2" s="1">
         <v>44551</v>
       </c>
-      <c r="HQ2" s="1">
+      <c r="HU2" s="1">
         <v>44552</v>
       </c>
-      <c r="HR2" s="1">
+      <c r="HV2" s="1">
         <v>44553</v>
       </c>
-      <c r="HS2" s="1">
+      <c r="HW2" s="1">
         <v>44554</v>
       </c>
     </row>
-    <row r="3" spans="1:227" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:231" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1224,29 @@
       <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:227" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:231" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1217,8 +1271,23 @@
       <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:227" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:231" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1243,8 +1312,23 @@
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:227" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:231" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1269,8 +1353,17 @@
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:227" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:231" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1289,29 +1382,52 @@
       <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:227" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:231" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:227" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:231" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:231" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1323,9 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E690FB0A-C59B-424B-B45B-C70925E6A38B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/陈明灿每日计划表.xlsx
+++ b/陈明灿每日计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE20593-D739-4EFD-8C03-8E7FEA653355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033789C-EEA3-49C4-9A54-36E946217FF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="-108" windowWidth="22776" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="864" yWindow="384" windowWidth="18288" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>7点前起床</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>经济课论文（时间不够的话放在明天抄）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糟糕透了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济课论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +180,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,6 +221,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:HW10"/>
+  <dimension ref="A2:HX11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -504,24 +526,26 @@
     <col min="11" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="14" width="10.88671875" customWidth="1"/>
     <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" customWidth="1"/>
-    <col min="17" max="24" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="33" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="54" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="63" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="85" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="94" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="116" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="125" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="155" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="156" max="177" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="178" max="186" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="187" max="207" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="208" max="216" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="217" max="231" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="19" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="55" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="64" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="86" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="95" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="117" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="126" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="127" max="156" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="157" max="178" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="179" max="187" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="188" max="208" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="209" max="217" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="218" max="232" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:231" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:232" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44332</v>
       </c>
@@ -546,660 +570,662 @@
         <v>44337</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="1">
+      <c r="M2" s="5">
         <v>44338</v>
       </c>
+      <c r="N2" s="5"/>
       <c r="O2" s="5">
         <v>44339</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="1">
+      <c r="Q2" s="5">
         <v>44340</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="5"/>
+      <c r="S2" s="1">
         <v>44341</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>44342</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>44343</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>44344</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>44345</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>44346</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>44347</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>44348</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>44349</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>44350</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>44351</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>44352</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>44353</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>44354</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>44355</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>44356</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>44357</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>44358</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AK2" s="1">
         <v>44359</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AL2" s="1">
         <v>44360</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <v>44361</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AN2" s="1">
         <v>44362</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AO2" s="1">
         <v>44363</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AP2" s="1">
         <v>44364</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AQ2" s="1">
         <v>44365</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AR2" s="1">
         <v>44366</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AS2" s="1">
         <v>44367</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AT2" s="1">
         <v>44368</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AU2" s="1">
         <v>44369</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AV2" s="1">
         <v>44370</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AW2" s="1">
         <v>44371</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AX2" s="1">
         <v>44372</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AY2" s="1">
         <v>44373</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AZ2" s="1">
         <v>44374</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="BA2" s="1">
         <v>44375</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BB2" s="1">
         <v>44376</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BC2" s="1">
         <v>44377</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BD2" s="1">
         <v>44378</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BE2" s="1">
         <v>44379</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BF2" s="1">
         <v>44380</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BG2" s="1">
         <v>44381</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BH2" s="1">
         <v>44382</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BI2" s="1">
         <v>44383</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BJ2" s="1">
         <v>44384</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BK2" s="1">
         <v>44385</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BL2" s="1">
         <v>44386</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BM2" s="1">
         <v>44387</v>
       </c>
-      <c r="BM2" s="1">
+      <c r="BN2" s="1">
         <v>44388</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BO2" s="1">
         <v>44389</v>
       </c>
-      <c r="BO2" s="1">
+      <c r="BP2" s="1">
         <v>44390</v>
       </c>
-      <c r="BP2" s="1">
+      <c r="BQ2" s="1">
         <v>44391</v>
       </c>
-      <c r="BQ2" s="1">
+      <c r="BR2" s="1">
         <v>44392</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BS2" s="1">
         <v>44393</v>
       </c>
-      <c r="BS2" s="1">
+      <c r="BT2" s="1">
         <v>44394</v>
       </c>
-      <c r="BT2" s="1">
+      <c r="BU2" s="1">
         <v>44395</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="BV2" s="1">
         <v>44396</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BW2" s="1">
         <v>44397</v>
       </c>
-      <c r="BW2" s="1">
+      <c r="BX2" s="1">
         <v>44398</v>
       </c>
-      <c r="BX2" s="1">
+      <c r="BY2" s="1">
         <v>44399</v>
       </c>
-      <c r="BY2" s="1">
+      <c r="BZ2" s="1">
         <v>44400</v>
       </c>
-      <c r="BZ2" s="1">
+      <c r="CA2" s="1">
         <v>44401</v>
       </c>
-      <c r="CA2" s="1">
+      <c r="CB2" s="1">
         <v>44402</v>
       </c>
-      <c r="CB2" s="1">
+      <c r="CC2" s="1">
         <v>44403</v>
       </c>
-      <c r="CC2" s="1">
+      <c r="CD2" s="1">
         <v>44404</v>
       </c>
-      <c r="CD2" s="1">
+      <c r="CE2" s="1">
         <v>44405</v>
       </c>
-      <c r="CE2" s="1">
+      <c r="CF2" s="1">
         <v>44406</v>
       </c>
-      <c r="CF2" s="1">
+      <c r="CG2" s="1">
         <v>44407</v>
       </c>
-      <c r="CG2" s="1">
+      <c r="CH2" s="1">
         <v>44408</v>
       </c>
-      <c r="CH2" s="1">
+      <c r="CI2" s="1">
         <v>44409</v>
       </c>
-      <c r="CI2" s="1">
+      <c r="CJ2" s="1">
         <v>44410</v>
       </c>
-      <c r="CJ2" s="1">
+      <c r="CK2" s="1">
         <v>44411</v>
       </c>
-      <c r="CK2" s="1">
+      <c r="CL2" s="1">
         <v>44412</v>
       </c>
-      <c r="CL2" s="1">
+      <c r="CM2" s="1">
         <v>44413</v>
       </c>
-      <c r="CM2" s="1">
+      <c r="CN2" s="1">
         <v>44414</v>
       </c>
-      <c r="CN2" s="1">
+      <c r="CO2" s="1">
         <v>44415</v>
       </c>
-      <c r="CO2" s="1">
+      <c r="CP2" s="1">
         <v>44416</v>
       </c>
-      <c r="CP2" s="1">
+      <c r="CQ2" s="1">
         <v>44417</v>
       </c>
-      <c r="CQ2" s="1">
+      <c r="CR2" s="1">
         <v>44418</v>
       </c>
-      <c r="CR2" s="1">
+      <c r="CS2" s="1">
         <v>44419</v>
       </c>
-      <c r="CS2" s="1">
+      <c r="CT2" s="1">
         <v>44420</v>
       </c>
-      <c r="CT2" s="1">
+      <c r="CU2" s="1">
         <v>44421</v>
       </c>
-      <c r="CU2" s="1">
+      <c r="CV2" s="1">
         <v>44422</v>
       </c>
-      <c r="CV2" s="1">
+      <c r="CW2" s="1">
         <v>44423</v>
       </c>
-      <c r="CW2" s="1">
+      <c r="CX2" s="1">
         <v>44424</v>
       </c>
-      <c r="CX2" s="1">
+      <c r="CY2" s="1">
         <v>44425</v>
       </c>
-      <c r="CY2" s="1">
+      <c r="CZ2" s="1">
         <v>44426</v>
       </c>
-      <c r="CZ2" s="1">
+      <c r="DA2" s="1">
         <v>44427</v>
       </c>
-      <c r="DA2" s="1">
+      <c r="DB2" s="1">
         <v>44428</v>
       </c>
-      <c r="DB2" s="1">
+      <c r="DC2" s="1">
         <v>44429</v>
       </c>
-      <c r="DC2" s="1">
+      <c r="DD2" s="1">
         <v>44430</v>
       </c>
-      <c r="DD2" s="1">
+      <c r="DE2" s="1">
         <v>44431</v>
       </c>
-      <c r="DE2" s="1">
+      <c r="DF2" s="1">
         <v>44432</v>
       </c>
-      <c r="DF2" s="1">
+      <c r="DG2" s="1">
         <v>44433</v>
       </c>
-      <c r="DG2" s="1">
+      <c r="DH2" s="1">
         <v>44434</v>
       </c>
-      <c r="DH2" s="1">
+      <c r="DI2" s="1">
         <v>44435</v>
       </c>
-      <c r="DI2" s="1">
+      <c r="DJ2" s="1">
         <v>44436</v>
       </c>
-      <c r="DJ2" s="1">
+      <c r="DK2" s="1">
         <v>44437</v>
       </c>
-      <c r="DK2" s="1">
+      <c r="DL2" s="1">
         <v>44438</v>
       </c>
-      <c r="DL2" s="1">
+      <c r="DM2" s="1">
         <v>44439</v>
       </c>
-      <c r="DM2" s="1">
+      <c r="DN2" s="1">
         <v>44440</v>
       </c>
-      <c r="DN2" s="1">
+      <c r="DO2" s="1">
         <v>44441</v>
       </c>
-      <c r="DO2" s="1">
+      <c r="DP2" s="1">
         <v>44442</v>
       </c>
-      <c r="DP2" s="1">
+      <c r="DQ2" s="1">
         <v>44443</v>
       </c>
-      <c r="DQ2" s="1">
+      <c r="DR2" s="1">
         <v>44444</v>
       </c>
-      <c r="DR2" s="1">
+      <c r="DS2" s="1">
         <v>44445</v>
       </c>
-      <c r="DS2" s="1">
+      <c r="DT2" s="1">
         <v>44446</v>
       </c>
-      <c r="DT2" s="1">
+      <c r="DU2" s="1">
         <v>44447</v>
       </c>
-      <c r="DU2" s="1">
+      <c r="DV2" s="1">
         <v>44448</v>
       </c>
-      <c r="DV2" s="1">
+      <c r="DW2" s="1">
         <v>44449</v>
       </c>
-      <c r="DW2" s="1">
+      <c r="DX2" s="1">
         <v>44450</v>
       </c>
-      <c r="DX2" s="1">
+      <c r="DY2" s="1">
         <v>44451</v>
       </c>
-      <c r="DY2" s="1">
+      <c r="DZ2" s="1">
         <v>44452</v>
       </c>
-      <c r="DZ2" s="1">
+      <c r="EA2" s="1">
         <v>44453</v>
       </c>
-      <c r="EA2" s="1">
+      <c r="EB2" s="1">
         <v>44454</v>
       </c>
-      <c r="EB2" s="1">
+      <c r="EC2" s="1">
         <v>44455</v>
       </c>
-      <c r="EC2" s="1">
+      <c r="ED2" s="1">
         <v>44456</v>
       </c>
-      <c r="ED2" s="1">
+      <c r="EE2" s="1">
         <v>44457</v>
       </c>
-      <c r="EE2" s="1">
+      <c r="EF2" s="1">
         <v>44458</v>
       </c>
-      <c r="EF2" s="1">
+      <c r="EG2" s="1">
         <v>44459</v>
       </c>
-      <c r="EG2" s="1">
+      <c r="EH2" s="1">
         <v>44460</v>
       </c>
-      <c r="EH2" s="1">
+      <c r="EI2" s="1">
         <v>44461</v>
       </c>
-      <c r="EI2" s="1">
+      <c r="EJ2" s="1">
         <v>44462</v>
       </c>
-      <c r="EJ2" s="1">
+      <c r="EK2" s="1">
         <v>44463</v>
       </c>
-      <c r="EK2" s="1">
+      <c r="EL2" s="1">
         <v>44464</v>
       </c>
-      <c r="EL2" s="1">
+      <c r="EM2" s="1">
         <v>44465</v>
       </c>
-      <c r="EM2" s="1">
+      <c r="EN2" s="1">
         <v>44466</v>
       </c>
-      <c r="EN2" s="1">
+      <c r="EO2" s="1">
         <v>44467</v>
       </c>
-      <c r="EO2" s="1">
+      <c r="EP2" s="1">
         <v>44468</v>
       </c>
-      <c r="EP2" s="1">
+      <c r="EQ2" s="1">
         <v>44469</v>
       </c>
-      <c r="EQ2" s="1">
+      <c r="ER2" s="1">
         <v>44470</v>
       </c>
-      <c r="ER2" s="1">
+      <c r="ES2" s="1">
         <v>44471</v>
       </c>
-      <c r="ES2" s="1">
+      <c r="ET2" s="1">
         <v>44472</v>
       </c>
-      <c r="ET2" s="1">
+      <c r="EU2" s="1">
         <v>44473</v>
       </c>
-      <c r="EU2" s="1">
+      <c r="EV2" s="1">
         <v>44474</v>
       </c>
-      <c r="EV2" s="1">
+      <c r="EW2" s="1">
         <v>44475</v>
       </c>
-      <c r="EW2" s="1">
+      <c r="EX2" s="1">
         <v>44476</v>
       </c>
-      <c r="EX2" s="1">
+      <c r="EY2" s="1">
         <v>44477</v>
       </c>
-      <c r="EY2" s="1">
+      <c r="EZ2" s="1">
         <v>44478</v>
       </c>
-      <c r="EZ2" s="1">
+      <c r="FA2" s="1">
         <v>44479</v>
       </c>
-      <c r="FA2" s="1">
+      <c r="FB2" s="1">
         <v>44480</v>
       </c>
-      <c r="FB2" s="1">
+      <c r="FC2" s="1">
         <v>44481</v>
       </c>
-      <c r="FC2" s="1">
+      <c r="FD2" s="1">
         <v>44482</v>
       </c>
-      <c r="FD2" s="1">
+      <c r="FE2" s="1">
         <v>44483</v>
       </c>
-      <c r="FE2" s="1">
+      <c r="FF2" s="1">
         <v>44484</v>
       </c>
-      <c r="FF2" s="1">
+      <c r="FG2" s="1">
         <v>44485</v>
       </c>
-      <c r="FG2" s="1">
+      <c r="FH2" s="1">
         <v>44486</v>
       </c>
-      <c r="FH2" s="1">
+      <c r="FI2" s="1">
         <v>44487</v>
       </c>
-      <c r="FI2" s="1">
+      <c r="FJ2" s="1">
         <v>44488</v>
       </c>
-      <c r="FJ2" s="1">
+      <c r="FK2" s="1">
         <v>44489</v>
       </c>
-      <c r="FK2" s="1">
+      <c r="FL2" s="1">
         <v>44490</v>
       </c>
-      <c r="FL2" s="1">
+      <c r="FM2" s="1">
         <v>44491</v>
       </c>
-      <c r="FM2" s="1">
+      <c r="FN2" s="1">
         <v>44492</v>
       </c>
-      <c r="FN2" s="1">
+      <c r="FO2" s="1">
         <v>44493</v>
       </c>
-      <c r="FO2" s="1">
+      <c r="FP2" s="1">
         <v>44494</v>
       </c>
-      <c r="FP2" s="1">
+      <c r="FQ2" s="1">
         <v>44495</v>
       </c>
-      <c r="FQ2" s="1">
+      <c r="FR2" s="1">
         <v>44496</v>
       </c>
-      <c r="FR2" s="1">
+      <c r="FS2" s="1">
         <v>44497</v>
       </c>
-      <c r="FS2" s="1">
+      <c r="FT2" s="1">
         <v>44498</v>
       </c>
-      <c r="FT2" s="1">
+      <c r="FU2" s="1">
         <v>44499</v>
       </c>
-      <c r="FU2" s="1">
+      <c r="FV2" s="1">
         <v>44500</v>
       </c>
-      <c r="FV2" s="1">
+      <c r="FW2" s="1">
         <v>44501</v>
       </c>
-      <c r="FW2" s="1">
+      <c r="FX2" s="1">
         <v>44502</v>
       </c>
-      <c r="FX2" s="1">
+      <c r="FY2" s="1">
         <v>44503</v>
       </c>
-      <c r="FY2" s="1">
+      <c r="FZ2" s="1">
         <v>44504</v>
       </c>
-      <c r="FZ2" s="1">
+      <c r="GA2" s="1">
         <v>44505</v>
       </c>
-      <c r="GA2" s="1">
+      <c r="GB2" s="1">
         <v>44506</v>
       </c>
-      <c r="GB2" s="1">
+      <c r="GC2" s="1">
         <v>44507</v>
       </c>
-      <c r="GC2" s="1">
+      <c r="GD2" s="1">
         <v>44508</v>
       </c>
-      <c r="GD2" s="1">
+      <c r="GE2" s="1">
         <v>44509</v>
       </c>
-      <c r="GE2" s="1">
+      <c r="GF2" s="1">
         <v>44510</v>
       </c>
-      <c r="GF2" s="1">
+      <c r="GG2" s="1">
         <v>44511</v>
       </c>
-      <c r="GG2" s="1">
+      <c r="GH2" s="1">
         <v>44512</v>
       </c>
-      <c r="GH2" s="1">
+      <c r="GI2" s="1">
         <v>44513</v>
       </c>
-      <c r="GI2" s="1">
+      <c r="GJ2" s="1">
         <v>44514</v>
       </c>
-      <c r="GJ2" s="1">
+      <c r="GK2" s="1">
         <v>44515</v>
       </c>
-      <c r="GK2" s="1">
+      <c r="GL2" s="1">
         <v>44516</v>
       </c>
-      <c r="GL2" s="1">
+      <c r="GM2" s="1">
         <v>44517</v>
       </c>
-      <c r="GM2" s="1">
+      <c r="GN2" s="1">
         <v>44518</v>
       </c>
-      <c r="GN2" s="1">
+      <c r="GO2" s="1">
         <v>44519</v>
       </c>
-      <c r="GO2" s="1">
+      <c r="GP2" s="1">
         <v>44520</v>
       </c>
-      <c r="GP2" s="1">
+      <c r="GQ2" s="1">
         <v>44521</v>
       </c>
-      <c r="GQ2" s="1">
+      <c r="GR2" s="1">
         <v>44522</v>
       </c>
-      <c r="GR2" s="1">
+      <c r="GS2" s="1">
         <v>44523</v>
       </c>
-      <c r="GS2" s="1">
+      <c r="GT2" s="1">
         <v>44524</v>
       </c>
-      <c r="GT2" s="1">
+      <c r="GU2" s="1">
         <v>44525</v>
       </c>
-      <c r="GU2" s="1">
+      <c r="GV2" s="1">
         <v>44526</v>
       </c>
-      <c r="GV2" s="1">
+      <c r="GW2" s="1">
         <v>44527</v>
       </c>
-      <c r="GW2" s="1">
+      <c r="GX2" s="1">
         <v>44528</v>
       </c>
-      <c r="GX2" s="1">
+      <c r="GY2" s="1">
         <v>44529</v>
       </c>
-      <c r="GY2" s="1">
+      <c r="GZ2" s="1">
         <v>44530</v>
       </c>
-      <c r="GZ2" s="1">
+      <c r="HA2" s="1">
         <v>44531</v>
       </c>
-      <c r="HA2" s="1">
+      <c r="HB2" s="1">
         <v>44532</v>
       </c>
-      <c r="HB2" s="1">
+      <c r="HC2" s="1">
         <v>44533</v>
       </c>
-      <c r="HC2" s="1">
+      <c r="HD2" s="1">
         <v>44534</v>
       </c>
-      <c r="HD2" s="1">
+      <c r="HE2" s="1">
         <v>44535</v>
       </c>
-      <c r="HE2" s="1">
+      <c r="HF2" s="1">
         <v>44536</v>
       </c>
-      <c r="HF2" s="1">
+      <c r="HG2" s="1">
         <v>44537</v>
       </c>
-      <c r="HG2" s="1">
+      <c r="HH2" s="1">
         <v>44538</v>
       </c>
-      <c r="HH2" s="1">
+      <c r="HI2" s="1">
         <v>44539</v>
       </c>
-      <c r="HI2" s="1">
+      <c r="HJ2" s="1">
         <v>44540</v>
       </c>
-      <c r="HJ2" s="1">
+      <c r="HK2" s="1">
         <v>44541</v>
       </c>
-      <c r="HK2" s="1">
+      <c r="HL2" s="1">
         <v>44542</v>
       </c>
-      <c r="HL2" s="1">
+      <c r="HM2" s="1">
         <v>44543</v>
       </c>
-      <c r="HM2" s="1">
+      <c r="HN2" s="1">
         <v>44544</v>
       </c>
-      <c r="HN2" s="1">
+      <c r="HO2" s="1">
         <v>44545</v>
       </c>
-      <c r="HO2" s="1">
+      <c r="HP2" s="1">
         <v>44546</v>
       </c>
-      <c r="HP2" s="1">
+      <c r="HQ2" s="1">
         <v>44547</v>
       </c>
-      <c r="HQ2" s="1">
+      <c r="HR2" s="1">
         <v>44548</v>
       </c>
-      <c r="HR2" s="1">
+      <c r="HS2" s="1">
         <v>44549</v>
       </c>
-      <c r="HS2" s="1">
+      <c r="HT2" s="1">
         <v>44550</v>
       </c>
-      <c r="HT2" s="1">
+      <c r="HU2" s="1">
         <v>44551</v>
       </c>
-      <c r="HU2" s="1">
+      <c r="HV2" s="1">
         <v>44552</v>
       </c>
-      <c r="HV2" s="1">
+      <c r="HW2" s="1">
         <v>44553</v>
       </c>
-      <c r="HW2" s="1">
+      <c r="HX2" s="1">
         <v>44554</v>
       </c>
     </row>
-    <row r="3" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1245,8 +1271,14 @@
       <c r="O3" t="s">
         <v>18</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1286,8 +1318,14 @@
       <c r="O4" t="s">
         <v>7</v>
       </c>
+      <c r="P4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1327,8 +1365,14 @@
       <c r="O5" t="s">
         <v>1</v>
       </c>
+      <c r="P5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1362,8 +1406,14 @@
       <c r="O6" t="s">
         <v>19</v>
       </c>
+      <c r="P6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1391,8 +1441,14 @@
       <c r="O7" t="s">
         <v>20</v>
       </c>
+      <c r="P7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1402,8 +1458,14 @@
       <c r="O8" t="s">
         <v>21</v>
       </c>
+      <c r="P8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1413,14 +1475,34 @@
       <c r="O9" t="s">
         <v>22</v>
       </c>
+      <c r="P9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:232" x14ac:dyDescent="0.25">
       <c r="O10" t="s">
         <v>23</v>
       </c>
+      <c r="P10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="O11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="A2:B2"/>
@@ -1428,6 +1510,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1439,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E690FB0A-C59B-424B-B45B-C70925E6A38B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/陈明灿每日计划表.xlsx
+++ b/陈明灿每日计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supervise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033789C-EEA3-49C4-9A54-36E946217FF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E0D35-C819-42B7-ABB6-1FC31D09BF0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="864" yWindow="384" windowWidth="18288" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>7点前起床</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,7 +132,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>了</t>
+    <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,10 +220,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +509,7 @@
   <dimension ref="A2:HX11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
     <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" style="3" customWidth="1"/>
     <col min="19" max="25" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="34" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="35" max="55" width="10.109375" bestFit="1" customWidth="1"/>
@@ -546,42 +546,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:232" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>44332</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
         <v>44333</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
         <v>44334</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
         <v>44335</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
         <v>44336</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
         <v>44337</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6">
         <v>44338</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6">
         <v>44339</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6">
         <v>44340</v>
       </c>
-      <c r="R2" s="5"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="1">
         <v>44341</v>
       </c>
@@ -1277,6 +1277,9 @@
       <c r="Q3" t="s">
         <v>7</v>
       </c>
+      <c r="R3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1324,6 +1327,9 @@
       <c r="Q4" t="s">
         <v>1</v>
       </c>
+      <c r="R4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1371,6 +1377,9 @@
       <c r="Q5" t="s">
         <v>19</v>
       </c>
+      <c r="R5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1464,6 +1473,9 @@
       <c r="Q8" t="s">
         <v>22</v>
       </c>
+      <c r="R8" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1492,12 +1504,15 @@
       <c r="Q10" t="s">
         <v>26</v>
       </c>
+      <c r="R10" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:232" x14ac:dyDescent="0.25">
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
